--- a/section2/ExcelHomework2.xlsx
+++ b/section2/ExcelHomework2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodne\Code\SavvyCoders\Homework\section2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A91B74D-5F7E-4A10-859E-976B6AEA879F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB69B293-724D-43E5-858A-7F1575FD71EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2004" yWindow="2520" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId2"/>
+    <sheet name="Payments" sheetId="17" r:id="rId2"/>
     <sheet name="Expenses" sheetId="15" r:id="rId3"/>
     <sheet name="Homework Instructions" sheetId="16" r:id="rId4"/>
   </sheets>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -937,196 +937,7 @@
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Style 1" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="79">
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <font>
         <b val="0"/>
@@ -1411,7 +1222,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[ExcelHomework2.xlsx]Sheet1!Suppliers</c:name>
+    <c:name>[ExcelHomework2.xlsx]Payments!Suppliers</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1515,7 +1326,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$3</c:f>
+              <c:f>Payments!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1536,7 +1347,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$4:$A$13</c:f>
+              <c:f>Payments!$A$4:$A$13</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
                 <c:lvl>
@@ -1577,7 +1388,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$13</c:f>
+              <c:f>Payments!$B$4:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4931,7 +4742,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37F29C22-14FA-4835-99D4-402FB7F82244}" name="Suppliers" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37F29C22-14FA-4835-99D4-402FB7F82244}" name="Suppliers" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0"/>
@@ -5061,13 +4872,13 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="1" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="78">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -5082,7 +4893,7 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -5095,18 +4906,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0ECC83B-FB1F-470A-9738-1701C5E6EAD9}" name="ExpTable" displayName="ExpTable" ref="A2:I210" totalsRowShown="0" headerRowDxfId="75" dataDxfId="73" headerRowBorderDxfId="74" tableBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0ECC83B-FB1F-470A-9738-1701C5E6EAD9}" name="ExpTable" displayName="ExpTable" ref="A2:I210" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A2:I210" xr:uid="{F0ECC83B-FB1F-470A-9738-1701C5E6EAD9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{47D67BF7-379E-43D6-AD0F-632B27590792}" name="Document Date" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{A23FF0CA-B313-49B5-BC0D-7E809216BBA2}" name="Supplier" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{EE6E0E7D-5812-4289-B7E2-DDC25DD3CBC0}" name="Reference" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{F1EAEEDD-A144-4888-BB13-D4F0A84CE1C7}" name="Description" dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{349DE50A-A808-4233-AACF-5FFE72700E60}" name="Tax Inclusive Amount" dataDxfId="67" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{303144B1-CD22-4B51-852A-4722E8032A2A}" name="TAX CODE" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{EFE4587F-BD45-4539-8D8E-CBEE42F94872}" name="Bank Code" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{9FDC5BDE-7AB2-409C-91A2-118256E2CFBB}" name="Account Code" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{D64E0C73-E496-4CCF-86BD-EE1D080B5EF0}" name="Payment Date" dataDxfId="63"/>
+    <tableColumn id="1" xr3:uid="{47D67BF7-379E-43D6-AD0F-632B27590792}" name="Document Date" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{A23FF0CA-B313-49B5-BC0D-7E809216BBA2}" name="Supplier" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{EE6E0E7D-5812-4289-B7E2-DDC25DD3CBC0}" name="Reference" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{F1EAEEDD-A144-4888-BB13-D4F0A84CE1C7}" name="Description" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{349DE50A-A808-4233-AACF-5FFE72700E60}" name="Tax Inclusive Amount" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{303144B1-CD22-4B51-852A-4722E8032A2A}" name="TAX CODE" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{EFE4587F-BD45-4539-8D8E-CBEE42F94872}" name="Bank Code" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{9FDC5BDE-7AB2-409C-91A2-118256E2CFBB}" name="Account Code" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{D64E0C73-E496-4CCF-86BD-EE1D080B5EF0}" name="Payment Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5560,7 +5371,7 @@
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -11763,7 +11574,7 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/section2/ExcelHomework2.xlsx
+++ b/section2/ExcelHomework2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodne\Code\SavvyCoders\Homework\section2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB69B293-724D-43E5-858A-7F1575FD71EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F2C20AB-D755-475F-99EB-9DF56988FB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2004" yWindow="2520" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="9" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -918,13 +918,13 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -937,7 +937,31 @@
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Style 1" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="22">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1183,12 +1207,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4742,7 +4760,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37F29C22-14FA-4835-99D4-402FB7F82244}" name="Suppliers" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{37F29C22-14FA-4835-99D4-402FB7F82244}" name="Suppliers" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField numFmtId="14" showAll="0"/>
@@ -4872,13 +4890,13 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="1" baseItem="0" numFmtId="166"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="15">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -4906,18 +4924,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0ECC83B-FB1F-470A-9738-1701C5E6EAD9}" name="ExpTable" displayName="ExpTable" ref="A2:I210" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0ECC83B-FB1F-470A-9738-1701C5E6EAD9}" name="ExpTable" displayName="ExpTable" ref="A2:I210" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
   <autoFilter ref="A2:I210" xr:uid="{F0ECC83B-FB1F-470A-9738-1701C5E6EAD9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{47D67BF7-379E-43D6-AD0F-632B27590792}" name="Document Date" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A23FF0CA-B313-49B5-BC0D-7E809216BBA2}" name="Supplier" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{EE6E0E7D-5812-4289-B7E2-DDC25DD3CBC0}" name="Reference" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{F1EAEEDD-A144-4888-BB13-D4F0A84CE1C7}" name="Description" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{349DE50A-A808-4233-AACF-5FFE72700E60}" name="Tax Inclusive Amount" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{303144B1-CD22-4B51-852A-4722E8032A2A}" name="TAX CODE" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{EFE4587F-BD45-4539-8D8E-CBEE42F94872}" name="Bank Code" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{9FDC5BDE-7AB2-409C-91A2-118256E2CFBB}" name="Account Code" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{D64E0C73-E496-4CCF-86BD-EE1D080B5EF0}" name="Payment Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{47D67BF7-379E-43D6-AD0F-632B27590792}" name="Document Date" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{A23FF0CA-B313-49B5-BC0D-7E809216BBA2}" name="Supplier" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{EE6E0E7D-5812-4289-B7E2-DDC25DD3CBC0}" name="Reference" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{F1EAEEDD-A144-4888-BB13-D4F0A84CE1C7}" name="Description" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{349DE50A-A808-4233-AACF-5FFE72700E60}" name="Tax Inclusive Amount" dataDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{303144B1-CD22-4B51-852A-4722E8032A2A}" name="TAX CODE" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{EFE4587F-BD45-4539-8D8E-CBEE42F94872}" name="Bank Code" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{9FDC5BDE-7AB2-409C-91A2-118256E2CFBB}" name="Account Code" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{D64E0C73-E496-4CCF-86BD-EE1D080B5EF0}" name="Payment Date" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5371,21 +5389,20 @@
   <dimension ref="A3:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5398,7 +5415,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>158</v>
       </c>
       <c r="B5" s="31">
@@ -5406,7 +5423,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="31">
@@ -5414,7 +5431,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="31">
@@ -5422,7 +5439,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="31">
@@ -5430,7 +5447,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>159</v>
       </c>
       <c r="B9" s="31">
@@ -5438,7 +5455,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="31">
@@ -5446,7 +5463,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="31">
@@ -5454,7 +5471,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="31">
